--- a/Program/Other/LM030_底稿_轉催收案件明細_核定總表.xlsx
+++ b/Program/Other/LM030_底稿_轉催收案件明細_核定總表.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.8\itxDoc\itxWrite\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2896C984-22B4-4F12-940E-9A04D45006F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7580"/>
   </bookViews>
   <sheets>
-    <sheet name="11005" sheetId="1" r:id="rId1"/>
+    <sheet name="YYYMM" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'11005'!$A$2:$N$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">YYYMM!$A$2:$N$4</definedName>
     <definedName name="_xlnm.Database">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'11005'!$A$1:$M$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">YYYMM!$A$1:$M$10</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -95,7 +94,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -404,11 +403,11 @@
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2" xfId="2"/>
     <cellStyle name="千分位" xfId="1" builtinId="3"/>
-    <cellStyle name="千分位 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="千分位 2" xfId="3"/>
     <cellStyle name="百分比" xfId="5" builtinId="5"/>
-    <cellStyle name="貨幣 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="貨幣 2" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -499,23 +498,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -551,23 +533,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -743,7 +708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -754,23 +719,23 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="27" customWidth="1"/>
+    <col min="1" max="1" width="8.6328125" style="27" customWidth="1"/>
     <col min="2" max="2" width="11" style="27" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="5.33203125" style="24" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="24" customWidth="1"/>
-    <col min="7" max="8" width="12.6640625" style="25" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="26" customWidth="1"/>
-    <col min="10" max="11" width="9.6640625" style="24" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" style="27" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" customWidth="1"/>
-    <col min="14" max="14" width="14.88671875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="5.36328125" style="24" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="9.6328125" style="24" customWidth="1"/>
+    <col min="7" max="8" width="12.6328125" style="25" customWidth="1"/>
+    <col min="9" max="9" width="9.6328125" style="26" customWidth="1"/>
+    <col min="10" max="11" width="9.6328125" style="24" customWidth="1"/>
+    <col min="12" max="12" width="9.6328125" style="27" customWidth="1"/>
+    <col min="13" max="13" width="14.453125" customWidth="1"/>
+    <col min="14" max="14" width="14.90625" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="3" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="3" customFormat="1" ht="27.5" x14ac:dyDescent="0.4">
       <c r="A1" s="35" t="s">
         <v>14</v>
       </c>
@@ -804,7 +769,7 @@
       <c r="AC1" s="2"/>
       <c r="AD1" s="2"/>
     </row>
-    <row r="2" spans="1:30" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -861,7 +826,7 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="C3" s="13"/>
@@ -876,7 +841,7 @@
       <c r="M3" s="17"/>
       <c r="N3" s="31"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="13"/>
@@ -890,7 +855,7 @@
       <c r="L4" s="19"/>
       <c r="M4" s="21"/>
     </row>
-    <row r="11" spans="1:30" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" s="23" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="27"/>
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
@@ -906,7 +871,7 @@
       <c r="M11"/>
       <c r="N11" s="22"/>
     </row>
-    <row r="12" spans="1:30" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" s="23" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="27"/>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
@@ -922,7 +887,7 @@
       <c r="M12"/>
       <c r="N12" s="22"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.4">
       <c r="N13" s="28"/>
       <c r="O13" s="27"/>
       <c r="P13" s="27"/>
@@ -931,7 +896,7 @@
       <c r="S13" s="27"/>
       <c r="T13" s="27"/>
     </row>
-    <row r="14" spans="1:30" s="33" customFormat="1" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" s="33" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A14" s="27"/>
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
@@ -947,7 +912,7 @@
       <c r="M14"/>
       <c r="N14" s="32"/>
     </row>
-    <row r="15" spans="1:30" s="33" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" s="33" customFormat="1" ht="19.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="27"/>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
@@ -963,7 +928,7 @@
       <c r="M15"/>
       <c r="N15" s="32"/>
     </row>
-    <row r="16" spans="1:30" s="34" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" s="34" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="27"/>
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
@@ -978,7 +943,7 @@
       <c r="L16" s="27"/>
       <c r="M16"/>
     </row>
-    <row r="17" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="27"/>
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
@@ -994,7 +959,7 @@
       <c r="M17"/>
       <c r="N17" s="29"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
       <c r="N18" s="28"/>
       <c r="O18" s="27"/>
       <c r="P18" s="27"/>
@@ -1003,7 +968,7 @@
       <c r="S18" s="27"/>
       <c r="T18" s="27"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
       <c r="N19" s="28"/>
       <c r="O19" s="27"/>
       <c r="P19" s="27"/>
@@ -1013,7 +978,7 @@
       <c r="T19" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:N4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:N4"/>
   <mergeCells count="1">
     <mergeCell ref="A1:M1"/>
   </mergeCells>

--- a/Program/Other/LM030_底稿_轉催收案件明細_核定總表.xlsx
+++ b/Program/Other/LM030_底稿_轉催收案件明細_核定總表.xlsx
@@ -1,30 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.8\itxDoc\itxWrite\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\iTX\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86D23B1-02C0-446E-AB1C-01DD7D1A5A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7580"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="YYYMM" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">YYYMM!$A$2:$N$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">YYYMM!$A$2:$O$4</definedName>
     <definedName name="_xlnm.Database">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">YYYMM!$A$1:$M$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">YYYMM!$A$1:$N$10</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>地區別</t>
   </si>
@@ -90,11 +91,15 @@
     <t>YYY.MM  轉催收明細總表</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>到期日期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -291,11 +296,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
@@ -304,28 +309,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -379,10 +384,7 @@
     <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -397,17 +399,17 @@
     <xf numFmtId="9" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="2"/>
+    <cellStyle name="一般 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="千分位" xfId="1" builtinId="3"/>
-    <cellStyle name="千分位 2" xfId="3"/>
+    <cellStyle name="千分位 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="百分比" xfId="5" builtinId="5"/>
-    <cellStyle name="貨幣 2" xfId="4"/>
+    <cellStyle name="貨幣 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -423,9 +425,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -463,9 +465,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -500,7 +502,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -535,7 +537,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -708,15 +710,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:AE19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -729,29 +731,30 @@
     <col min="6" max="6" width="9.6328125" style="24" customWidth="1"/>
     <col min="7" max="8" width="12.6328125" style="25" customWidth="1"/>
     <col min="9" max="9" width="9.6328125" style="26" customWidth="1"/>
-    <col min="10" max="11" width="9.6328125" style="24" customWidth="1"/>
-    <col min="12" max="12" width="9.6328125" style="27" customWidth="1"/>
-    <col min="13" max="13" width="14.453125" customWidth="1"/>
-    <col min="14" max="14" width="14.90625" style="18" customWidth="1"/>
+    <col min="10" max="10" width="15.90625" style="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.6328125" style="24" customWidth="1"/>
+    <col min="13" max="13" width="9.6328125" style="27" customWidth="1"/>
+    <col min="14" max="14" width="14.453125" customWidth="1"/>
+    <col min="15" max="15" width="14.90625" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="3" customFormat="1" ht="27.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:31" s="3" customFormat="1" ht="27.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="1"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -761,15 +764,16 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
-      <c r="X1" s="2"/>
+      <c r="X1" s="1"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
       <c r="AD1" s="2"/>
-    </row>
-    <row r="2" spans="1:30" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AE1" s="2"/>
+    </row>
+    <row r="2" spans="1:31" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -797,36 +801,39 @@
       <c r="I2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="M2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="11"/>
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
       <c r="R2" s="11"/>
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
       <c r="U2" s="11"/>
-      <c r="V2" s="2"/>
+      <c r="V2" s="11"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="AB2" s="2"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="C3" s="13"/>
@@ -835,13 +842,14 @@
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
       <c r="I3" s="16"/>
-      <c r="J3" s="14"/>
+      <c r="J3" s="16"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="31"/>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="M3" s="14"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="30"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="13"/>
@@ -851,11 +859,12 @@
       <c r="H4" s="15"/>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="21"/>
-    </row>
-    <row r="11" spans="1:30" s="23" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="K4" s="16"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="21"/>
+    </row>
+    <row r="11" spans="1:31" s="23" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="27"/>
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
@@ -865,13 +874,14 @@
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
       <c r="I11" s="26"/>
-      <c r="J11" s="24"/>
+      <c r="J11" s="26"/>
       <c r="K11" s="24"/>
-      <c r="L11" s="27"/>
-      <c r="M11"/>
-      <c r="N11" s="22"/>
-    </row>
-    <row r="12" spans="1:30" s="23" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L11" s="24"/>
+      <c r="M11" s="27"/>
+      <c r="N11"/>
+      <c r="O11" s="22"/>
+    </row>
+    <row r="12" spans="1:31" s="23" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="27"/>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
@@ -881,22 +891,23 @@
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
       <c r="I12" s="26"/>
-      <c r="J12" s="24"/>
+      <c r="J12" s="26"/>
       <c r="K12" s="24"/>
-      <c r="L12" s="27"/>
-      <c r="M12"/>
-      <c r="N12" s="22"/>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="N13" s="28"/>
-      <c r="O13" s="27"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="27"/>
+      <c r="N12"/>
+      <c r="O12" s="22"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="O13" s="28"/>
       <c r="P13" s="27"/>
       <c r="Q13" s="27"/>
       <c r="R13" s="27"/>
       <c r="S13" s="27"/>
       <c r="T13" s="27"/>
-    </row>
-    <row r="14" spans="1:30" s="33" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="U13" s="27"/>
+    </row>
+    <row r="14" spans="1:31" s="32" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A14" s="27"/>
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
@@ -906,13 +917,14 @@
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="26"/>
-      <c r="J14" s="24"/>
+      <c r="J14" s="26"/>
       <c r="K14" s="24"/>
-      <c r="L14" s="27"/>
-      <c r="M14"/>
-      <c r="N14" s="32"/>
-    </row>
-    <row r="15" spans="1:30" s="33" customFormat="1" ht="19.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L14" s="24"/>
+      <c r="M14" s="27"/>
+      <c r="N14"/>
+      <c r="O14" s="31"/>
+    </row>
+    <row r="15" spans="1:31" s="32" customFormat="1" ht="19.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="27"/>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
@@ -922,13 +934,14 @@
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
       <c r="I15" s="26"/>
-      <c r="J15" s="24"/>
+      <c r="J15" s="26"/>
       <c r="K15" s="24"/>
-      <c r="L15" s="27"/>
-      <c r="M15"/>
-      <c r="N15" s="32"/>
-    </row>
-    <row r="16" spans="1:30" s="34" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L15" s="24"/>
+      <c r="M15" s="27"/>
+      <c r="N15"/>
+      <c r="O15" s="31"/>
+    </row>
+    <row r="16" spans="1:31" s="33" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="27"/>
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
@@ -938,12 +951,13 @@
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
       <c r="I16" s="26"/>
-      <c r="J16" s="24"/>
+      <c r="J16" s="26"/>
       <c r="K16" s="24"/>
-      <c r="L16" s="27"/>
-      <c r="M16"/>
-    </row>
-    <row r="17" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L16" s="24"/>
+      <c r="M16" s="27"/>
+      <c r="N16"/>
+    </row>
+    <row r="17" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="27"/>
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
@@ -953,34 +967,35 @@
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
       <c r="I17" s="26"/>
-      <c r="J17" s="24"/>
+      <c r="J17" s="26"/>
       <c r="K17" s="24"/>
-      <c r="L17" s="27"/>
-      <c r="M17"/>
-      <c r="N17" s="29"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="N18" s="28"/>
-      <c r="O18" s="27"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="27"/>
+      <c r="N17"/>
+      <c r="O17" s="29"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="O18" s="28"/>
       <c r="P18" s="27"/>
       <c r="Q18" s="27"/>
       <c r="R18" s="27"/>
       <c r="S18" s="27"/>
       <c r="T18" s="27"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="N19" s="28"/>
-      <c r="O19" s="27"/>
+      <c r="U18" s="27"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="O19" s="28"/>
       <c r="P19" s="27"/>
       <c r="Q19" s="27"/>
       <c r="R19" s="27"/>
       <c r="S19" s="27"/>
       <c r="T19" s="27"/>
+      <c r="U19" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:N4"/>
+  <autoFilter ref="A2:O4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A1:N1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
